--- a/Examples/Heterogeneity- Subgroup Analysis and Meta-regression/Data/Ketotifen.xlsx
+++ b/Examples/Heterogeneity- Subgroup Analysis and Meta-regression/Data/Ketotifen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7F0B27-BAE8-45FF-B3C8-4BA67CC33CB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905CB13C-3CD3-49BE-810B-2199565E2692}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43125" yWindow="7335" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1272" windowWidth="21600" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
